--- a/rmonize/data_dictionary/DD_CARLA_P2.xlsx
+++ b/rmonize/data_dictionary/DD_CARLA_P2.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,7 +391,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ID of the participant</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -466,12 +466,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>First professional qualification</t>
+          <t>Highest professional qualification</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -486,17 +486,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>met_we</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Second professional qualification</t>
+          <t>MET per week</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>met_we</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MET per week</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>integer</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>smoker</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>smoker</t>
+          <t>Current status of occupation</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -546,12 +546,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>employ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Current status of occupation</t>
+          <t>Currently employed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -566,17 +566,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>birth_place</t>
+          <t>packyear_tabacco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Place of birth</t>
+          <t>Packyears(cigarettes/cigars/pipes)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>packyear_tabacco</t>
+          <t>cignr_day</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Packyears(cigarettes/cigars/pipes)</t>
+          <t>Currently nr. smoked cigarettes/day</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cignr_day</t>
+          <t>cigarnr_day</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Currently nr. smoked cigarettes/day</t>
+          <t>Currently nr. smoked cigars/day</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>smokestop</t>
+          <t>pipe_day</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Age at stop Smoking</t>
+          <t>Currently nr. smoked pipes/day</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>vit_min</t>
+          <t>smokestop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vitamine, Mineralstoffe(J/N)</t>
+          <t>Age at stop Smoking</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>decimal</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>fr_hrt1</t>
+          <t>vit_min</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>fr_hrt1</t>
+          <t>Vitamine, Mineralstoffe(J/N)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>fr_period1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Number of biological children</t>
+          <t>Period_current</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>diabetes2</t>
+          <t>fr_op7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Diabetes(interview or antidiabetic med)</t>
+          <t>Ovariectomy</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hyp_i</t>
+          <t>fr_hrt1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Physician diagnosed hypertension(self reported)</t>
+          <t>fr_hrt1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>children</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CVD 1=yes 0=no 2=poss. by MI_final/CABG/PTCA/stroke/carotis-OP</t>
+          <t>Number of biological children</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>diabetes2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cancer ever(interview)</t>
+          <t>Diabetes(interview or antidiabetic med)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fam_stroke</t>
+          <t>hyp_i</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Family history of stroke(parents or sibling)</t>
+          <t>Physician diagnosed hypertension(self reported)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>fam_diab</t>
+          <t>htn_kora</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Family history of dm(parents or sibling)</t>
+          <t>Hypertension:&gt;=140/90 or drugs(ATC) if known htn</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fam_cancer</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Family history of cancer(parents or sibling)</t>
+          <t>CVD 1=yes 0=no 2=poss. by MI_final/CABG/PTCA/stroke/carotis-OP</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>f2_mi_i_inc</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Myocard.infarct since Carla_1-Carla_2(interview)</t>
+          <t>Cancer ever(interview)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -866,17 +866,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>f2_mi_year</t>
+          <t>fam_stroke</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Year of myocard.infarction since Carla_1-Carla_2(interview)</t>
+          <t>Family history of stroke(parents or sibling)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>integer</t>
         </is>
       </c>
     </row>
@@ -886,17 +886,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>f1_stroke_first_year_inc</t>
+          <t>fam_diab</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Year of 1st Stroke since Carla_0-Carla_1(interview)</t>
+          <t>Family history of dm(parents or sibling)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>integer</t>
         </is>
       </c>
     </row>
@@ -906,12 +906,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>f1_chf_total_inz</t>
+          <t>fam_cancer</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>inc. chronic heart failure Carla_1</t>
+          <t>Family history of cancer(parents or sibling)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -926,17 +926,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>f1_age</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Age at follow-up</t>
+          <t>Regular use of statins</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>integer</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>f2_cancer1_inc</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ist bei Ihnen seit Carla_1 eine Krebserkrankung neu aufgetreten?-Carla_2</t>
+          <t>Regular use of non-steroidal anti-inflammatory drugs</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>f1_htn_kora</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Welche Krebserkrankung war das(I)?-Carla_2</t>
+          <t>measured blood pressure &gt;=140/90</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -986,17 +986,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>f2_cancer1_date</t>
+          <t>f2_htn_kora</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Wann ist diese Krebserkrankung zum ersten Mal diagnostiziert worden[Monat/Jahr](I)-Carla_2</t>
+          <t>medication if known htn at FU2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>integer</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>vit_stat</t>
+          <t>f1_chf_total_inz</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Vital status(1=dead/0=alive))</t>
+          <t>inc. chronic heart failure Carla_1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1026,17 +1026,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tod_dat</t>
+          <t>f2_insuff_date</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Date of death</t>
+          <t>Wann wurde die Herzinsuffizienz zum ersten Mal diagnostiziert</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>datetime</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1046,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tg</t>
+          <t>vit_stat</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Triglyceride (mmol/l)</t>
+          <t>Vital status(1=dead/0=alive))</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>integer</t>
         </is>
       </c>
     </row>
@@ -1066,17 +1066,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>chol</t>
+          <t>tod_dat</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cholesterol (mmol/l)</t>
+          <t>Date of death</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1086,17 +1086,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ldlc</t>
+          <t>gebdat</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>LDL measured (mmol/l)</t>
+          <t>Date of birth</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1106,17 +1106,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>hdl</t>
+          <t>F1_untdat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HDL (mmol/l)</t>
+          <t>baseline examination for follow-up 1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1126,17 +1126,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>bmi</t>
+          <t>F2_untdat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>bmi</t>
+          <t>baseline examination for follow-up 2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>decimal</t>
+          <t>date</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>f1_bmi</t>
+          <t>tg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>f1_bmi</t>
+          <t>Triglyceride (mmol/l)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>f1_taillenumfang</t>
+          <t>chol</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>f1_taillenumfang</t>
+          <t>Cholesterol (mmol/l)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>taillenumfang</t>
+          <t>ldlc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>taillenumfang</t>
+          <t>LDL measured (mmol/l)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hueftumfang</t>
+          <t>hdl</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>hueftumfang</t>
+          <t>HDL (mmol/l)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>f1_hueftumfang</t>
+          <t>bmi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>f1_hueftumfang</t>
+          <t>bmi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>gj</t>
+          <t>f1_bmi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>total energy intake at baseline</t>
+          <t>f1_bmi</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>zk</t>
+          <t>f1_taillenumfang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>total carbohydrates at baseline</t>
+          <t>f1_taillenumfang</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1286,12 +1286,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ze</t>
+          <t>taillenumfang</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>total protein intake at baseline</t>
+          <t>taillenumfang</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>zf</t>
+          <t>hueftumfang</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>total fat intake at baseline</t>
+          <t>hueftumfang</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>za</t>
+          <t>f1_hueftumfang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>total alcohol intake at baseline</t>
+          <t>f1_hueftumfang</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>zb</t>
+          <t>f1_age</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>dietary fiber intake at baseline</t>
+          <t>Age at follow-up</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fs</t>
+          <t>gj</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>total saturated fatty acids intake at baseline</t>
+          <t>Gesamtenergie [kJ/Tag]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1386,12 +1386,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>fu</t>
+          <t>zk</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>total monounsaturated fatty acids intake at baseline</t>
+          <t>Kohlenhydrate [g/Tag]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fp</t>
+          <t>ze</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>total polyunsaturated fatty acids intake at baseline</t>
+          <t>Eiweiß [g/Tag]</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>kmt</t>
+          <t>zf</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>glucose</t>
+          <t>Fett [g/Tag]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1446,12 +1446,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kmf</t>
+          <t>za</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>fructose</t>
+          <t>Alkohol [g/Tag]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1466,15 +1466,435 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>zb</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ballaststoffe [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>fs</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Gesättigte Fettsäuren [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>fu</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Einfach ungesättigte Fettsaeuren [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>fp</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mehrfach ungesättigte Fettsaeuren [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>kd</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Disaccharide [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>km</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Monosaccharide [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>kmt</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Glucose [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>kmf</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fructose [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>mna</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>natrium</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Natrium [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>mk</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Kalium [g/Tag]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>VEGETABLES_02</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vegetable intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LEGUMES_TOT_03</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Total legumes intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FRUITS_TOT_04</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Total fruit intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RED_MEAT_0701</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Intake of red meat (mammals meat) [g/d]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>PROCMEAT_0704</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Intake of processed or preserved meat [g/d]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SUGAR_CONFECT_11</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CAKES_12</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Intake of cakes and fine bakery products [g/d]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FRUITVEG_JUICE_1301</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Intake of fruit and vegetable juices [g/d]</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>SOFTDRINKS_1302</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Intake of soft drinks [g/d]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>COFFEE_130301</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Coffee intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>TEA_130302</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tea intake [g/d]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>decimal</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ART_SWEETENER_170201</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>decimal</t>
         </is>
@@ -1487,7 +1907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1566,7 +1986,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>elementary School</t>
+          <t>Hauptschule</t>
         </is>
       </c>
     </row>
@@ -1648,7 +2068,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B11">
@@ -1663,7 +2083,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B12">
@@ -1678,7 +2098,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B13">
@@ -1693,7 +2113,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B14">
@@ -1708,7 +2128,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B15">
@@ -1723,7 +2143,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B16">
@@ -1738,7 +2158,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B17">
@@ -1753,7 +2173,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>occup_edu</t>
+          <t>occup_edu_h</t>
         </is>
       </c>
       <c r="B18">
@@ -1768,7 +2188,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="B19">
@@ -1776,14 +2196,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>no vocational education</t>
+          <t>Current Smoker</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="B20">
@@ -1791,14 +2211,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>training period</t>
+          <t>Ex Smoker</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>smoker</t>
         </is>
       </c>
       <c r="B21">
@@ -1806,127 +2226,127 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>apprenticeship(Lehre)</t>
+          <t>Never Smoker</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>vocational school(Berufsschule)</t>
+          <t>retired</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>technical school(Fachschule)</t>
+          <t>unemployed</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>university of applied sciences(Fachhochschule)</t>
+          <t>housewife/husband,</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>in education/re-education</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>occup_edu_2</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>student</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>smoker</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Current Smoker</t>
+          <t>maternity or other leave</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>smoker</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ex Smoker</t>
+          <t>not full-time employed for other reasons</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>smoker</t>
+          <t>work_status</t>
         </is>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Never Smoker</t>
+          <t>partial retirement</t>
         </is>
       </c>
     </row>
@@ -1937,187 +2357,187 @@
         </is>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>retired</t>
+          <t>none of the above</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>employ</t>
         </is>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>unemployed</t>
+          <t>full time</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>employ</t>
         </is>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>housewife/husband,</t>
+          <t>regular part time</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>employ</t>
         </is>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>in education/re-education</t>
+          <t>marginal/irregular employed</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>employ</t>
         </is>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>student</t>
+          <t>none</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>vit_min</t>
         </is>
       </c>
       <c r="B35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>maternity or other leave</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>vit_min</t>
         </is>
       </c>
       <c r="B36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>not full-time employed for other reasons</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>fr_period1</t>
         </is>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>partial retirement</t>
+          <t>yes (regular)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>work_status</t>
+          <t>fr_period1</t>
         </is>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>none of the above</t>
+          <t>yes (irregular)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>fr_hrt1</t>
+          <t>fr_period1</t>
         </is>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>fr_hrt1</t>
+          <t>fr_op7</t>
         </is>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes, one</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>fr_hrt1</t>
+          <t>fr_op7</t>
         </is>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>no HRT because premenopause</t>
+          <t>yes, both(surgical ova.)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>diabetes2</t>
+          <t>fr_op7</t>
         </is>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2128,7 +2548,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>diabetes2</t>
+          <t>fr_hrt1</t>
         </is>
       </c>
       <c r="B43">
@@ -2143,11 +2563,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>fr_hrt1</t>
         </is>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2158,52 +2578,52 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>fr_hrt1</t>
         </is>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no HRT because premenopause</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>cvd</t>
+          <t>diabetes2</t>
         </is>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>poss. by MI_final/CABG/PTCA/stroke/carotis-OP</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>diabetes2</t>
         </is>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>cancer</t>
+          <t>hyp_i</t>
         </is>
       </c>
       <c r="B48">
@@ -2211,74 +2631,74 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fam_stroke</t>
+          <t>hyp_i</t>
         </is>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fam_stroke</t>
+          <t>htn_kora</t>
         </is>
       </c>
       <c r="B50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>fam_stroke</t>
+          <t>htn_kora</t>
         </is>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No/don't know</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>fam_stroke</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>I don't know</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>fam_diab</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B53">
@@ -2286,14 +2706,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fam_diab</t>
+          <t>cvd</t>
         </is>
       </c>
       <c r="B54">
@@ -2301,44 +2721,44 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>poss. by MI_final/CABG/PTCA/stroke/carotis-OP</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>fam_diab</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>No/don't know</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>fam_diab</t>
+          <t>cancer</t>
         </is>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>don't know</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>fam_cancer</t>
+          <t>fam_stroke</t>
         </is>
       </c>
       <c r="B57">
@@ -2353,7 +2773,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fam_cancer</t>
+          <t>fam_stroke</t>
         </is>
       </c>
       <c r="B58">
@@ -2368,7 +2788,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fam_cancer</t>
+          <t>fam_stroke</t>
         </is>
       </c>
       <c r="B59">
@@ -2383,7 +2803,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>fam_cancer</t>
+          <t>fam_stroke</t>
         </is>
       </c>
       <c r="B60">
@@ -2398,7 +2818,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>f2_mi_i_inc</t>
+          <t>fam_diab</t>
         </is>
       </c>
       <c r="B61">
@@ -2406,14 +2826,14 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>f2_mi_i_inc</t>
+          <t>fam_diab</t>
         </is>
       </c>
       <c r="B62">
@@ -2421,44 +2841,44 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>f1_chf_total_inz</t>
+          <t>fam_diab</t>
         </is>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No/don't know</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>f1_chf_total_inz</t>
+          <t>fam_diab</t>
         </is>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>don't know</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>f2_cancer1_inc</t>
+          <t>fam_cancer</t>
         </is>
       </c>
       <c r="B65">
@@ -2466,14 +2886,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>f2_cancer1_inc</t>
+          <t>fam_cancer</t>
         </is>
       </c>
       <c r="B66">
@@ -2481,170 +2901,215 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>fam_cancer</t>
         </is>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Brustkrebs</t>
+          <t>No/don't know</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>fam_cancer</t>
         </is>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Darmkrebs</t>
+          <t>I don't know</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Prostatakrebs</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>MED_STAT</t>
         </is>
       </c>
       <c r="B70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Gebärmutterkrebs</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Gebärmutterhalskrebs</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>MED_NSAID</t>
         </is>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Unterleibskrebs</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>f1_htn_kora</t>
         </is>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Hautkrebs</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>f1_htn_kora</t>
         </is>
       </c>
       <c r="B74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Schilddrüsenkrebs</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>f2_cancer1_typ</t>
+          <t>f2_htn_kora</t>
         </is>
       </c>
       <c r="B75">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sonstige</t>
+          <t>no</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vit_stat</t>
+          <t>f2_htn_kora</t>
         </is>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>f1_chf_total_inz</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>f1_chf_total_inz</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>vit_stat</t>
         </is>
       </c>
-      <c r="B77">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vit_stat</t>
+        </is>
+      </c>
+      <c r="B80">
         <v>1</v>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>yes</t>
         </is>

--- a/rmonize/data_dictionary/DD_CARLA_P2.xlsx
+++ b/rmonize/data_dictionary/DD_CARLA_P2.xlsx
@@ -386,7 +386,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>med_stat</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>med_nsaid</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>F1_untdat</t>
+          <t>f1_untdat</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>F2_untdat</t>
+          <t>f2_untdat</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>don't know</t>
+          <t>I don't know</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>med_stat</t>
         </is>
       </c>
       <c r="B69">
@@ -2953,7 +2953,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MED_STAT</t>
+          <t>med_stat</t>
         </is>
       </c>
       <c r="B70">
@@ -2968,7 +2968,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>med_nsaid</t>
         </is>
       </c>
       <c r="B71">
@@ -2983,7 +2983,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MED_NSAID</t>
+          <t>med_nsaid</t>
         </is>
       </c>
       <c r="B72">
